--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,12 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.4948476606063</v>
+        <v>26.687079</v>
       </c>
       <c r="H2">
-        <v>12.4948476606063</v>
+        <v>80.06123700000001</v>
       </c>
       <c r="I2">
-        <v>0.8302737766376145</v>
+        <v>0.904368363808284</v>
       </c>
       <c r="J2">
-        <v>0.8302737766376145</v>
+        <v>0.9043683638082839</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N2">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O2">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P2">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q2">
-        <v>1113.626947146899</v>
+        <v>2599.851793546809</v>
       </c>
       <c r="R2">
-        <v>1113.626947146899</v>
+        <v>23398.66614192128</v>
       </c>
       <c r="S2">
-        <v>0.2746384973988675</v>
+        <v>0.3121232572423814</v>
       </c>
       <c r="T2">
-        <v>0.2746384973988675</v>
+        <v>0.3121232572423813</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.4948476606063</v>
+        <v>26.687079</v>
       </c>
       <c r="H3">
-        <v>12.4948476606063</v>
+        <v>80.06123700000001</v>
       </c>
       <c r="I3">
-        <v>0.8302737766376145</v>
+        <v>0.904368363808284</v>
       </c>
       <c r="J3">
-        <v>0.8302737766376145</v>
+        <v>0.9043683638082839</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N3">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O3">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P3">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q3">
-        <v>433.4815694077315</v>
+        <v>931.721665820202</v>
       </c>
       <c r="R3">
-        <v>433.4815694077315</v>
+        <v>8385.494992381819</v>
       </c>
       <c r="S3">
-        <v>0.1069035974544699</v>
+        <v>0.1118571458192096</v>
       </c>
       <c r="T3">
-        <v>0.1069035974544699</v>
+        <v>0.1118571458192096</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.4948476606063</v>
+        <v>26.687079</v>
       </c>
       <c r="H4">
-        <v>12.4948476606063</v>
+        <v>80.06123700000001</v>
       </c>
       <c r="I4">
-        <v>0.8302737766376145</v>
+        <v>0.904368363808284</v>
       </c>
       <c r="J4">
-        <v>0.8302737766376145</v>
+        <v>0.9043683638082839</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N4">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O4">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P4">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q4">
-        <v>593.4399529428124</v>
+        <v>1345.754483339247</v>
       </c>
       <c r="R4">
-        <v>593.4399529428124</v>
+        <v>12111.79035005322</v>
       </c>
       <c r="S4">
-        <v>0.1463519335538939</v>
+        <v>0.1615635452109171</v>
       </c>
       <c r="T4">
-        <v>0.1463519335538939</v>
+        <v>0.1615635452109171</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.4948476606063</v>
+        <v>26.687079</v>
       </c>
       <c r="H5">
-        <v>12.4948476606063</v>
+        <v>80.06123700000001</v>
       </c>
       <c r="I5">
-        <v>0.8302737766376145</v>
+        <v>0.904368363808284</v>
       </c>
       <c r="J5">
-        <v>0.8302737766376145</v>
+        <v>0.9043683638082839</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N5">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O5">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P5">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q5">
-        <v>795.911873499577</v>
+        <v>1704.877701768027</v>
       </c>
       <c r="R5">
-        <v>795.911873499577</v>
+        <v>15343.89931591224</v>
       </c>
       <c r="S5">
-        <v>0.1962847985672956</v>
+        <v>0.2046778138648391</v>
       </c>
       <c r="T5">
-        <v>0.1962847985672956</v>
+        <v>0.204677813864839</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.4948476606063</v>
+        <v>26.687079</v>
       </c>
       <c r="H6">
-        <v>12.4948476606063</v>
+        <v>80.06123700000001</v>
       </c>
       <c r="I6">
-        <v>0.8302737766376145</v>
+        <v>0.904368363808284</v>
       </c>
       <c r="J6">
-        <v>0.8302737766376145</v>
+        <v>0.9043683638082839</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N6">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O6">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P6">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q6">
-        <v>233.7853109929918</v>
+        <v>523.316059092018</v>
       </c>
       <c r="R6">
-        <v>233.7853109929918</v>
+        <v>4709.844531828163</v>
       </c>
       <c r="S6">
-        <v>0.05765525581931948</v>
+        <v>0.06282631699871409</v>
       </c>
       <c r="T6">
-        <v>0.05765525581931948</v>
+        <v>0.06282631699871408</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.4948476606063</v>
+        <v>26.687079</v>
       </c>
       <c r="H7">
-        <v>12.4948476606063</v>
+        <v>80.06123700000001</v>
       </c>
       <c r="I7">
-        <v>0.8302737766376145</v>
+        <v>0.904368363808284</v>
       </c>
       <c r="J7">
-        <v>0.8302737766376145</v>
+        <v>0.9043683638082839</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N7">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O7">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P7">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q7">
-        <v>196.4172863122731</v>
+        <v>427.475784179706</v>
       </c>
       <c r="R7">
-        <v>196.4172863122731</v>
+        <v>3847.282057617354</v>
       </c>
       <c r="S7">
-        <v>0.04843969384376804</v>
+        <v>0.05132028467222273</v>
       </c>
       <c r="T7">
-        <v>0.04843969384376804</v>
+        <v>0.05132028467222272</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.17416814651917</v>
+        <v>1.177005666666667</v>
       </c>
       <c r="H8">
-        <v>1.17416814651917</v>
+        <v>3.531017</v>
       </c>
       <c r="I8">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062454</v>
       </c>
       <c r="J8">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062453</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N8">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O8">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P8">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q8">
-        <v>104.6499584438972</v>
+        <v>114.6637402129357</v>
       </c>
       <c r="R8">
-        <v>104.6499584438972</v>
+        <v>1031.973661916421</v>
       </c>
       <c r="S8">
-        <v>0.02580837991889455</v>
+        <v>0.01376586933597119</v>
       </c>
       <c r="T8">
-        <v>0.02580837991889455</v>
+        <v>0.01376586933597118</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.17416814651917</v>
+        <v>1.177005666666667</v>
       </c>
       <c r="H9">
-        <v>1.17416814651917</v>
+        <v>3.531017</v>
       </c>
       <c r="I9">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062454</v>
       </c>
       <c r="J9">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062453</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N9">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O9">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P9">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q9">
-        <v>40.73521060255963</v>
+        <v>41.09260816541534</v>
       </c>
       <c r="R9">
-        <v>40.73521060255963</v>
+        <v>369.833473488738</v>
       </c>
       <c r="S9">
-        <v>0.01004596472793295</v>
+        <v>0.004933342254743179</v>
       </c>
       <c r="T9">
-        <v>0.01004596472793295</v>
+        <v>0.004933342254743178</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.17416814651917</v>
+        <v>1.177005666666667</v>
       </c>
       <c r="H10">
-        <v>1.17416814651917</v>
+        <v>3.531017</v>
       </c>
       <c r="I10">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062454</v>
       </c>
       <c r="J10">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062453</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N10">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O10">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P10">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q10">
-        <v>55.76684954824604</v>
+        <v>59.35309191509367</v>
       </c>
       <c r="R10">
-        <v>55.76684954824604</v>
+        <v>534.177827235843</v>
       </c>
       <c r="S10">
-        <v>0.0137530110993073</v>
+        <v>0.007125590936348097</v>
       </c>
       <c r="T10">
-        <v>0.0137530110993073</v>
+        <v>0.007125590936348096</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.17416814651917</v>
+        <v>1.177005666666667</v>
       </c>
       <c r="H11">
-        <v>1.17416814651917</v>
+        <v>3.531017</v>
       </c>
       <c r="I11">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062454</v>
       </c>
       <c r="J11">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062453</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N11">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O11">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P11">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q11">
-        <v>74.79357849603835</v>
+        <v>75.19184531040702</v>
       </c>
       <c r="R11">
-        <v>74.79357849603835</v>
+        <v>676.7266077936631</v>
       </c>
       <c r="S11">
-        <v>0.01844531157032664</v>
+        <v>0.009027100596504431</v>
       </c>
       <c r="T11">
-        <v>0.01844531157032664</v>
+        <v>0.009027100596504429</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.17416814651917</v>
+        <v>1.177005666666667</v>
       </c>
       <c r="H12">
-        <v>1.17416814651917</v>
+        <v>3.531017</v>
       </c>
       <c r="I12">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062454</v>
       </c>
       <c r="J12">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062453</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N12">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O12">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P12">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q12">
-        <v>21.96931669343209</v>
+        <v>23.08030665360467</v>
       </c>
       <c r="R12">
-        <v>21.96931669343209</v>
+        <v>207.722759882442</v>
       </c>
       <c r="S12">
-        <v>0.005417990415032721</v>
+        <v>0.002770888905574223</v>
       </c>
       <c r="T12">
-        <v>0.005417990415032721</v>
+        <v>0.002770888905574222</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.17416814651917</v>
+        <v>1.177005666666667</v>
       </c>
       <c r="H13">
-        <v>1.17416814651917</v>
+        <v>3.531017</v>
       </c>
       <c r="I13">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062454</v>
       </c>
       <c r="J13">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062453</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N13">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O13">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P13">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q13">
-        <v>18.4577617333204</v>
+        <v>18.85337171379045</v>
       </c>
       <c r="R13">
-        <v>18.4577617333204</v>
+        <v>169.680345424114</v>
       </c>
       <c r="S13">
-        <v>0.004551983912361946</v>
+        <v>0.002263427401483416</v>
       </c>
       <c r="T13">
-        <v>0.004551983912361946</v>
+        <v>0.002263427401483415</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.0675226066562304</v>
+        <v>0.078877</v>
       </c>
       <c r="H14">
-        <v>0.0675226066562304</v>
+        <v>0.236631</v>
       </c>
       <c r="I14">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="J14">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N14">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O14">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P14">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q14">
-        <v>6.018080120420609</v>
+        <v>7.684187164867001</v>
       </c>
       <c r="R14">
-        <v>6.018080120420609</v>
+        <v>69.15768448380301</v>
       </c>
       <c r="S14">
-        <v>0.001484156328771282</v>
+        <v>0.0009225193271060994</v>
       </c>
       <c r="T14">
-        <v>0.001484156328771282</v>
+        <v>0.0009225193271060991</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.0675226066562304</v>
+        <v>0.078877</v>
       </c>
       <c r="H15">
-        <v>0.0675226066562304</v>
+        <v>0.236631</v>
       </c>
       <c r="I15">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="J15">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N15">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O15">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P15">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q15">
-        <v>2.342550009323075</v>
+        <v>2.753819922926</v>
       </c>
       <c r="R15">
-        <v>2.342550009323075</v>
+        <v>24.784379306334</v>
       </c>
       <c r="S15">
-        <v>0.0005777108898904253</v>
+        <v>0.0003306077855422766</v>
       </c>
       <c r="T15">
-        <v>0.0005777108898904253</v>
+        <v>0.0003306077855422765</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.0675226066562304</v>
+        <v>0.078877</v>
       </c>
       <c r="H16">
-        <v>0.0675226066562304</v>
+        <v>0.236631</v>
       </c>
       <c r="I16">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="J16">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N16">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O16">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P16">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q16">
-        <v>3.206970873521239</v>
+        <v>3.977545702261</v>
       </c>
       <c r="R16">
-        <v>3.206970873521239</v>
+        <v>35.797911320349</v>
       </c>
       <c r="S16">
-        <v>0.0007908911185763772</v>
+        <v>0.0004775212662128181</v>
       </c>
       <c r="T16">
-        <v>0.0007908911185763772</v>
+        <v>0.000477521266212818</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0675226066562304</v>
+        <v>0.078877</v>
       </c>
       <c r="H17">
-        <v>0.0675226066562304</v>
+        <v>0.236631</v>
       </c>
       <c r="I17">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="J17">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N17">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O17">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P17">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q17">
-        <v>4.301136422557038</v>
+        <v>5.038979293401001</v>
       </c>
       <c r="R17">
-        <v>4.301136422557038</v>
+        <v>45.350813640609</v>
       </c>
       <c r="S17">
-        <v>0.001060730119026821</v>
+        <v>0.0006049508799451942</v>
       </c>
       <c r="T17">
-        <v>0.001060730119026821</v>
+        <v>0.000604950879945194</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0675226066562304</v>
+        <v>0.078877</v>
       </c>
       <c r="H18">
-        <v>0.0675226066562304</v>
+        <v>0.236631</v>
       </c>
       <c r="I18">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="J18">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N18">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O18">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P18">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q18">
-        <v>1.263384238445232</v>
+        <v>1.546726068934</v>
       </c>
       <c r="R18">
-        <v>1.263384238445232</v>
+        <v>13.920534620406</v>
       </c>
       <c r="S18">
-        <v>0.0003115710784234837</v>
+        <v>0.0001856910381952094</v>
       </c>
       <c r="T18">
-        <v>0.0003115710784234837</v>
+        <v>0.0001856910381952093</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0675226066562304</v>
+        <v>0.078877</v>
       </c>
       <c r="H19">
-        <v>0.0675226066562304</v>
+        <v>0.236631</v>
       </c>
       <c r="I19">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="J19">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N19">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O19">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P19">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q19">
-        <v>1.061446087571127</v>
+        <v>1.263458148744667</v>
       </c>
       <c r="R19">
-        <v>1.061446087571127</v>
+        <v>11.371123338702</v>
       </c>
       <c r="S19">
-        <v>0.0002617698496855674</v>
+        <v>0.0001516835204816125</v>
       </c>
       <c r="T19">
-        <v>0.0002617698496855674</v>
+        <v>0.0001516835204816125</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1656,49 +1656,49 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.31253095609178</v>
+        <v>0.1348843333333333</v>
       </c>
       <c r="H20">
-        <v>1.31253095609178</v>
+        <v>0.404653</v>
       </c>
       <c r="I20">
-        <v>0.08721675233415543</v>
+        <v>0.004570943258347527</v>
       </c>
       <c r="J20">
-        <v>0.08721675233415543</v>
+        <v>0.004570943258347526</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N20">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O20">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P20">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q20">
-        <v>116.9818057307441</v>
+        <v>13.14041435325433</v>
       </c>
       <c r="R20">
-        <v>116.9818057307441</v>
+        <v>118.263729179289</v>
       </c>
       <c r="S20">
-        <v>0.02884961380578</v>
+        <v>0.001577562590157099</v>
       </c>
       <c r="T20">
-        <v>0.02884961380578</v>
+        <v>0.001577562590157098</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1718,49 +1718,49 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>1.31253095609178</v>
+        <v>0.1348843333333333</v>
       </c>
       <c r="H21">
-        <v>1.31253095609178</v>
+        <v>0.404653</v>
       </c>
       <c r="I21">
-        <v>0.08721675233415543</v>
+        <v>0.004570943258347527</v>
       </c>
       <c r="J21">
-        <v>0.08721675233415543</v>
+        <v>0.004570943258347526</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N21">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O21">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P21">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q21">
-        <v>45.53540740930386</v>
+        <v>4.709194878404666</v>
       </c>
       <c r="R21">
-        <v>45.53540740930386</v>
+        <v>42.38275390564201</v>
       </c>
       <c r="S21">
-        <v>0.01122977124554695</v>
+        <v>0.0005653588593338948</v>
       </c>
       <c r="T21">
-        <v>0.01122977124554695</v>
+        <v>0.0005653588593338947</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1780,49 +1780,49 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>1.31253095609178</v>
+        <v>0.1348843333333333</v>
       </c>
       <c r="H22">
-        <v>1.31253095609178</v>
+        <v>0.404653</v>
       </c>
       <c r="I22">
-        <v>0.08721675233415543</v>
+        <v>0.004570943258347527</v>
       </c>
       <c r="J22">
-        <v>0.08721675233415543</v>
+        <v>0.004570943258347526</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N22">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O22">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P22">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q22">
-        <v>62.33835977647244</v>
+        <v>6.801838309676333</v>
       </c>
       <c r="R22">
-        <v>62.33835977647244</v>
+        <v>61.216544787087</v>
       </c>
       <c r="S22">
-        <v>0.0153736522838128</v>
+        <v>0.0008165895970384924</v>
       </c>
       <c r="T22">
-        <v>0.0153736522838128</v>
+        <v>0.0008165895970384922</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>1.31253095609178</v>
+        <v>0.1348843333333333</v>
       </c>
       <c r="H23">
-        <v>1.31253095609178</v>
+        <v>0.404653</v>
       </c>
       <c r="I23">
-        <v>0.08721675233415543</v>
+        <v>0.004570943258347527</v>
       </c>
       <c r="J23">
-        <v>0.08721675233415543</v>
+        <v>0.004570943258347526</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N23">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O23">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P23">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q23">
-        <v>83.6071795883351</v>
+        <v>8.616952504163001</v>
       </c>
       <c r="R23">
-        <v>83.6071795883351</v>
+        <v>77.552572537467</v>
       </c>
       <c r="S23">
-        <v>0.0206188887874215</v>
+        <v>0.001034501770361714</v>
       </c>
       <c r="T23">
-        <v>0.0206188887874215</v>
+        <v>0.001034501770361713</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>1.31253095609178</v>
+        <v>0.1348843333333333</v>
       </c>
       <c r="H24">
-        <v>1.31253095609178</v>
+        <v>0.404653</v>
       </c>
       <c r="I24">
-        <v>0.08721675233415543</v>
+        <v>0.004570943258347527</v>
       </c>
       <c r="J24">
-        <v>0.08721675233415543</v>
+        <v>0.004570943258347526</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N24">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O24">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P24">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q24">
-        <v>24.55815917830534</v>
+        <v>2.644993022775334</v>
       </c>
       <c r="R24">
-        <v>24.55815917830534</v>
+        <v>23.804937204978</v>
       </c>
       <c r="S24">
-        <v>0.006056441030716459</v>
+        <v>0.000317542653662479</v>
       </c>
       <c r="T24">
-        <v>0.006056441030716459</v>
+        <v>0.0003175426536624789</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1348843333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.404653</v>
+      </c>
+      <c r="I25">
+        <v>0.004570943258347527</v>
+      </c>
+      <c r="J25">
+        <v>0.004570943258347526</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>16.01808066666667</v>
+      </c>
+      <c r="N25">
+        <v>48.054242</v>
+      </c>
+      <c r="O25">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="P25">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="Q25">
+        <v>2.160588132002889</v>
+      </c>
+      <c r="R25">
+        <v>19.445293188026</v>
+      </c>
+      <c r="S25">
+        <v>0.0002593877877938477</v>
+      </c>
+      <c r="T25">
+        <v>0.0002593877877938476</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.05539633333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.166189</v>
+      </c>
+      <c r="I26">
+        <v>0.001877263950005356</v>
+      </c>
+      <c r="J26">
+        <v>0.001877263950005355</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>97.419871</v>
+      </c>
+      <c r="N26">
+        <v>292.259613</v>
+      </c>
+      <c r="O26">
+        <v>0.3451284562056485</v>
+      </c>
+      <c r="P26">
+        <v>0.3451284562056485</v>
+      </c>
+      <c r="Q26">
+        <v>5.396703647206333</v>
+      </c>
+      <c r="R26">
+        <v>48.570332824857</v>
+      </c>
+      <c r="S26">
+        <v>0.0006478972089558661</v>
+      </c>
+      <c r="T26">
+        <v>0.0006478972089558659</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.05539633333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.166189</v>
+      </c>
+      <c r="I27">
+        <v>0.001877263950005356</v>
+      </c>
+      <c r="J27">
+        <v>0.001877263950005355</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>34.912838</v>
+      </c>
+      <c r="N27">
+        <v>104.738514</v>
+      </c>
+      <c r="O27">
+        <v>0.123685381195977</v>
+      </c>
+      <c r="P27">
+        <v>0.123685381195977</v>
+      </c>
+      <c r="Q27">
+        <v>1.934043211460667</v>
+      </c>
+      <c r="R27">
+        <v>17.406388903146</v>
+      </c>
+      <c r="S27">
+        <v>0.0002321901072618779</v>
+      </c>
+      <c r="T27">
+        <v>0.0002321901072618778</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.05539633333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.166189</v>
+      </c>
+      <c r="I28">
+        <v>0.001877263950005356</v>
+      </c>
+      <c r="J28">
+        <v>0.001877263950005355</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>50.427193</v>
+      </c>
+      <c r="N28">
+        <v>151.281579</v>
+      </c>
+      <c r="O28">
+        <v>0.1786479400170247</v>
+      </c>
+      <c r="P28">
+        <v>0.1786479400170247</v>
+      </c>
+      <c r="Q28">
+        <v>2.793481592492333</v>
+      </c>
+      <c r="R28">
+        <v>25.141334332431</v>
+      </c>
+      <c r="S28">
+        <v>0.0003353693375366796</v>
+      </c>
+      <c r="T28">
+        <v>0.0003353693375366795</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.05539633333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.166189</v>
+      </c>
+      <c r="I29">
+        <v>0.001877263950005356</v>
+      </c>
+      <c r="J29">
+        <v>0.001877263950005355</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>63.884013</v>
+      </c>
+      <c r="N29">
+        <v>191.652039</v>
+      </c>
+      <c r="O29">
+        <v>0.2263212890408322</v>
+      </c>
+      <c r="P29">
+        <v>0.2263212890408321</v>
+      </c>
+      <c r="Q29">
+        <v>3.538940078819</v>
+      </c>
+      <c r="R29">
+        <v>31.850460709371</v>
+      </c>
+      <c r="S29">
+        <v>0.0004248647970350963</v>
+      </c>
+      <c r="T29">
+        <v>0.0004248647970350962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.05539633333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.166189</v>
+      </c>
+      <c r="I30">
+        <v>0.001877263950005356</v>
+      </c>
+      <c r="J30">
+        <v>0.001877263950005355</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>19.609342</v>
+      </c>
+      <c r="N30">
+        <v>58.82802600000001</v>
+      </c>
+      <c r="O30">
+        <v>0.06946983056124746</v>
+      </c>
+      <c r="P30">
+        <v>0.06946983056124745</v>
+      </c>
+      <c r="Q30">
+        <v>1.086285645879333</v>
+      </c>
+      <c r="R30">
+        <v>9.776570812914002</v>
+      </c>
+      <c r="S30">
+        <v>0.0001304132085256102</v>
+      </c>
+      <c r="T30">
+        <v>0.0001304132085256101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.05539633333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.166189</v>
+      </c>
+      <c r="I31">
+        <v>0.001877263950005356</v>
+      </c>
+      <c r="J31">
+        <v>0.001877263950005355</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>16.01808066666667</v>
+      </c>
+      <c r="N31">
+        <v>48.054242</v>
+      </c>
+      <c r="O31">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="P31">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="Q31">
+        <v>0.8873429359708889</v>
+      </c>
+      <c r="R31">
+        <v>7.986086423738</v>
+      </c>
+      <c r="S31">
+        <v>0.0001065292906902253</v>
+      </c>
+      <c r="T31">
+        <v>0.0001065292906902253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.375838333333333</v>
+      </c>
+      <c r="H32">
+        <v>4.127515</v>
+      </c>
+      <c r="I32">
+        <v>0.04662423573525537</v>
+      </c>
+      <c r="J32">
+        <v>0.04662423573525536</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>97.419871</v>
+      </c>
+      <c r="N32">
+        <v>292.259613</v>
+      </c>
+      <c r="O32">
+        <v>0.3451284562056485</v>
+      </c>
+      <c r="P32">
+        <v>0.3451284562056485</v>
+      </c>
+      <c r="Q32">
+        <v>134.0339929501883</v>
+      </c>
+      <c r="R32">
+        <v>1206.305936551695</v>
+      </c>
+      <c r="S32">
+        <v>0.01609135050107692</v>
+      </c>
+      <c r="T32">
+        <v>0.01609135050107691</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.375838333333333</v>
+      </c>
+      <c r="H33">
+        <v>4.127515</v>
+      </c>
+      <c r="I33">
+        <v>0.04662423573525537</v>
+      </c>
+      <c r="J33">
+        <v>0.04662423573525536</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>34.912838</v>
+      </c>
+      <c r="N33">
+        <v>104.738514</v>
+      </c>
+      <c r="O33">
+        <v>0.123685381195977</v>
+      </c>
+      <c r="P33">
+        <v>0.123685381195977</v>
+      </c>
+      <c r="Q33">
+        <v>48.03442084585667</v>
+      </c>
+      <c r="R33">
+        <v>432.30978761271</v>
+      </c>
+      <c r="S33">
+        <v>0.005766736369886152</v>
+      </c>
+      <c r="T33">
+        <v>0.005766736369886149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.375838333333333</v>
+      </c>
+      <c r="H34">
+        <v>4.127515</v>
+      </c>
+      <c r="I34">
+        <v>0.04662423573525537</v>
+      </c>
+      <c r="J34">
+        <v>0.04662423573525536</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>50.427193</v>
+      </c>
+      <c r="N34">
+        <v>151.281579</v>
+      </c>
+      <c r="O34">
+        <v>0.1786479400170247</v>
+      </c>
+      <c r="P34">
+        <v>0.1786479400170247</v>
+      </c>
+      <c r="Q34">
+        <v>69.37966517179832</v>
+      </c>
+      <c r="R34">
+        <v>624.4169865461849</v>
+      </c>
+      <c r="S34">
+        <v>0.00832932366897152</v>
+      </c>
+      <c r="T34">
+        <v>0.008329323668971518</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.31253095609178</v>
-      </c>
-      <c r="H25">
-        <v>1.31253095609178</v>
-      </c>
-      <c r="I25">
-        <v>0.08721675233415543</v>
-      </c>
-      <c r="J25">
-        <v>0.08721675233415543</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>15.7198624302989</v>
-      </c>
-      <c r="N25">
-        <v>15.7198624302989</v>
-      </c>
-      <c r="O25">
-        <v>0.0583418327866933</v>
-      </c>
-      <c r="P25">
-        <v>0.0583418327866933</v>
-      </c>
-      <c r="Q25">
-        <v>20.63280606527147</v>
-      </c>
-      <c r="R25">
-        <v>20.63280606527147</v>
-      </c>
-      <c r="S25">
-        <v>0.005088385180877739</v>
-      </c>
-      <c r="T25">
-        <v>0.005088385180877739</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.375838333333333</v>
+      </c>
+      <c r="H35">
+        <v>4.127515</v>
+      </c>
+      <c r="I35">
+        <v>0.04662423573525537</v>
+      </c>
+      <c r="J35">
+        <v>0.04662423573525536</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>63.884013</v>
+      </c>
+      <c r="N35">
+        <v>191.652039</v>
+      </c>
+      <c r="O35">
+        <v>0.2263212890408322</v>
+      </c>
+      <c r="P35">
+        <v>0.2263212890408321</v>
+      </c>
+      <c r="Q35">
+        <v>87.894073972565</v>
+      </c>
+      <c r="R35">
+        <v>791.046665753085</v>
+      </c>
+      <c r="S35">
+        <v>0.01055205713214663</v>
+      </c>
+      <c r="T35">
+        <v>0.01055205713214662</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.375838333333333</v>
+      </c>
+      <c r="H36">
+        <v>4.127515</v>
+      </c>
+      <c r="I36">
+        <v>0.04662423573525537</v>
+      </c>
+      <c r="J36">
+        <v>0.04662423573525536</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>19.609342</v>
+      </c>
+      <c r="N36">
+        <v>58.82802600000001</v>
+      </c>
+      <c r="O36">
+        <v>0.06946983056124746</v>
+      </c>
+      <c r="P36">
+        <v>0.06946983056124745</v>
+      </c>
+      <c r="Q36">
+        <v>26.97928441504333</v>
+      </c>
+      <c r="R36">
+        <v>242.81355973539</v>
+      </c>
+      <c r="S36">
+        <v>0.003238977756575849</v>
+      </c>
+      <c r="T36">
+        <v>0.003238977756575848</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.375838333333333</v>
+      </c>
+      <c r="H37">
+        <v>4.127515</v>
+      </c>
+      <c r="I37">
+        <v>0.04662423573525537</v>
+      </c>
+      <c r="J37">
+        <v>0.04662423573525536</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>16.01808066666667</v>
+      </c>
+      <c r="N37">
+        <v>48.054242</v>
+      </c>
+      <c r="O37">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="P37">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="Q37">
+        <v>22.03828940762556</v>
+      </c>
+      <c r="R37">
+        <v>198.34460466863</v>
+      </c>
+      <c r="S37">
+        <v>0.002645790306598303</v>
+      </c>
+      <c r="T37">
+        <v>0.002645790306598302</v>
       </c>
     </row>
   </sheetData>
